--- a/dataproject/Size_emissions.xlsx
+++ b/dataproject/Size_emissions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66d05171bd16def4/Área de Trabalho/University of Copenhagen/Second Semester/Introduction to Programing and Numerical Analysis/projects-2023-it-hurts-when-ip/dataproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD2A745A-5DC0-44B9-8155-8EE92E8C5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{AD2A745A-5DC0-44B9-8155-8EE92E8C5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBEA377B-1D98-4529-AA7F-2BD9DDD4DE6D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Size_emissions" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -935,12 +935,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G1" t="s">

--- a/dataproject/Size_emissions.xlsx
+++ b/dataproject/Size_emissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66d05171bd16def4/Área de Trabalho/University of Copenhagen/Second Semester/Introduction to Programing and Numerical Analysis/projects-2023-it-hurts-when-ip/dataproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AD2A745A-5DC0-44B9-8155-8EE92E8C5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBEA377B-1D98-4529-AA7F-2BD9DDD4DE6D}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{AD2A745A-5DC0-44B9-8155-8EE92E8C5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBBE4021-93E2-4D3F-8FB1-EDE2960B2103}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
   <si>
     <t>ETS Information</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>44 031 418,000</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Definition</t>
   </si>
 </sst>
 </file>
@@ -637,6 +655,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,15 +960,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
